--- a/TemperatureData/St.MikesOxbow/1104.xlsx
+++ b/TemperatureData/St.MikesOxbow/1104.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uvmoffice.sharepoint.com/sites/TeamMosher/Shared Documents/General/People/Scott, Reed/FieldWork2022/HoboLoggerData/St.MikesOxbow/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gitrepos\VTADS\TemperatureData\St.MikesOxbow\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{EDC48CD1-F20C-4958-854C-AA77F0B9D584}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60205F52-D10D-4EB2-9E56-14346EAC49D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="1"/>
+    <workbookView xWindow="23880" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1104" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Plot Title: 21422120</t>
   </si>
@@ -53,9 +53,6 @@
     <t>End Of File (LGR S/N: 21422120)</t>
   </si>
   <si>
-    <t>Logged</t>
-  </si>
-  <si>
     <t>#Complex ID: 11</t>
   </si>
   <si>
@@ -73,11 +70,14 @@
   <si>
     <t>#logger was mostly sunk upon retrieval, but partially out of water</t>
   </si>
+  <si>
+    <t>#All data after retrieval date/time was deleted</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -617,9 +617,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -657,7 +657,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -763,7 +763,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -905,17 +905,19 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I3947"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I3932"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A3906" workbookViewId="0">
+      <selection activeCell="A3947" sqref="A3933:XFD3947"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -55977,252 +55979,53 @@
         <v>480</v>
       </c>
     </row>
-    <row r="3933" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3933">
-        <v>3931</v>
-      </c>
-      <c r="B3933" s="1">
-        <v>44776.4375</v>
-      </c>
-      <c r="C3933">
-        <v>78.097999999999999</v>
-      </c>
-      <c r="D3933">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="3934" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3934">
-        <v>3932</v>
-      </c>
-      <c r="B3934" s="1">
-        <v>44776.447916666664</v>
-      </c>
-      <c r="C3934">
-        <v>83.578999999999994</v>
-      </c>
-      <c r="D3934">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3935" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3935">
-        <v>3933</v>
-      </c>
-      <c r="B3935" s="1">
-        <v>44776.458333333336</v>
-      </c>
-      <c r="C3935">
-        <v>88.099000000000004</v>
-      </c>
-      <c r="D3935">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3936" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3936">
-        <v>3934</v>
-      </c>
-      <c r="B3936" s="1">
-        <v>44776.46875</v>
-      </c>
-      <c r="C3936">
-        <v>83.757000000000005</v>
-      </c>
-      <c r="D3936">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="3937" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3937">
-        <v>3935</v>
-      </c>
-      <c r="B3937" s="1">
-        <v>44776.479166666664</v>
-      </c>
-      <c r="C3937">
-        <v>84.834000000000003</v>
-      </c>
-      <c r="D3937">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="3938" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3938">
-        <v>3936</v>
-      </c>
-      <c r="B3938" s="1">
-        <v>44776.489583333336</v>
-      </c>
-      <c r="C3938">
-        <v>84.834000000000003</v>
-      </c>
-      <c r="D3938">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3939" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3939">
-        <v>3937</v>
-      </c>
-      <c r="B3939" s="1">
-        <v>44776.5</v>
-      </c>
-      <c r="C3939">
-        <v>87.004000000000005</v>
-      </c>
-      <c r="D3939">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3940" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3940">
-        <v>3938</v>
-      </c>
-      <c r="B3940" s="1">
-        <v>44776.510416666664</v>
-      </c>
-      <c r="C3940">
-        <v>87.733000000000004</v>
-      </c>
-      <c r="D3940">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="3941" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3941">
-        <v>3939</v>
-      </c>
-      <c r="B3941" s="1">
-        <v>44776.520833333336</v>
-      </c>
-      <c r="C3941">
-        <v>76.703000000000003</v>
-      </c>
-      <c r="D3941">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3942" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3942">
-        <v>3940</v>
-      </c>
-      <c r="B3942" s="1">
-        <v>44776.53125</v>
-      </c>
-      <c r="C3942">
-        <v>73.061999999999998</v>
-      </c>
-      <c r="D3942">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3943" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3943">
-        <v>3941</v>
-      </c>
-      <c r="B3943" s="1">
-        <v>44776.541666666664</v>
-      </c>
-      <c r="C3943">
-        <v>72.545000000000002</v>
-      </c>
-      <c r="D3943">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3944" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3944">
-        <v>3942</v>
-      </c>
-      <c r="B3944" s="1">
-        <v>44776.549629629626</v>
-      </c>
-      <c r="E3944" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3945" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3945">
-        <v>3943</v>
-      </c>
-      <c r="B3945" s="1">
-        <v>44776.549710648149</v>
-      </c>
-      <c r="F3945" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3946" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3946">
-        <v>3944</v>
-      </c>
-      <c r="B3946" s="1">
-        <v>44776.549756944441</v>
-      </c>
-      <c r="E3946" t="s">
-        <v>10</v>
-      </c>
-      <c r="G3946" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3947" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3947">
-        <v>3945</v>
-      </c>
-      <c r="B3947" s="1">
-        <v>44776.549930555557</v>
-      </c>
-      <c r="H3947" t="s">
-        <v>10</v>
-      </c>
-      <c r="I3947" t="s">
-        <v>10</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:A7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>16</v>
       </c>
     </row>
@@ -56459,15 +56262,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <TaxCatchAll xmlns="94106a43-364c-4431-a764-9e3dd608a139" xsi:nil="true"/>
@@ -56478,14 +56272,49 @@
 </p:properties>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E180A45A-F014-4D32-B70F-7500C6BB8CB0}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E180A45A-F014-4D32-B70F-7500C6BB8CB0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="6f61aad6-7023-4354-b4be-ac6efb5d4555"/>
+    <ds:schemaRef ds:uri="94106a43-364c-4431-a764-9e3dd608a139"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{196BEF89-FBB5-4C15-998E-DCD493E27B6F}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D15B941C-D3B9-4E00-833E-44DCA34B3151}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="94106a43-364c-4431-a764-9e3dd608a139"/>
+    <ds:schemaRef ds:uri="6f61aad6-7023-4354-b4be-ac6efb5d4555"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D15B941C-D3B9-4E00-833E-44DCA34B3151}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{196BEF89-FBB5-4C15-998E-DCD493E27B6F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>